--- a/database/industries/urea/shapdis/cost/yearly.xlsx
+++ b/database/industries/urea/shapdis/cost/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\urea\shapdis\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\shapdis\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD07149-07AA-4489-A23F-0CA204B1B2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="62">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -33,6 +34,21 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1391/06</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1392/06</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1393/06</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1394/06</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1395/06</t>
+  </si>
+  <si>
     <t>دوازده ماهه منتهی به 1396/06</t>
   </si>
   <si>
@@ -51,6 +67,9 @@
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>دستمزد مستقیم تولید</t>
   </si>
   <si>
@@ -97,9 +116,6 @@
   </si>
   <si>
     <t>متر مکعب</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>مواد شیمایی</t>
@@ -195,7 +211,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -365,7 +381,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -377,7 +393,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -424,6 +440,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -459,6 +492,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -610,17 +660,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I147"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -629,8 +679,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -641,8 +696,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -653,8 +713,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -663,8 +728,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -675,8 +745,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -687,8 +762,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -697,8 +777,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -719,8 +804,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -729,316 +829,531 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9">
+      <c r="E10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="9">
         <v>5896538</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>10049199</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>20183566</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>11751565</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>38631052</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="11">
+      <c r="E11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="11">
         <v>364851</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>439881</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>617102</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>930157</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>1774792</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9">
+      <c r="E12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="9">
         <v>3863651</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>6361166</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>9257988</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>17553538</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>31353383</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="13">
+      <c r="E13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="13">
         <v>10125040</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>16850246</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>30058656</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>30235260</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>71759227</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9">
+      <c r="E14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="9">
         <v>-124224</v>
       </c>
-      <c r="F14" s="9">
+      <c r="K14" s="9">
         <v>-403948</v>
       </c>
-      <c r="G14" s="9">
+      <c r="L14" s="9">
         <v>-339036</v>
       </c>
-      <c r="H14" s="9">
+      <c r="M14" s="9">
         <v>-131096</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>-263160</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="13">
+      <c r="E15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="13">
         <v>10000816</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>16446298</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>29719620</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>30104164</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>71496067</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="11">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="15">
+      <c r="E18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="15">
         <v>10000816</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>16446298</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>29719620</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>30104164</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>71496067</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="11">
+      <c r="E19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="11">
         <v>212492</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>481683</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>693333</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>3874230</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>2984107</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="9">
+      <c r="E20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="9">
         <v>-481683</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-693333</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-3874229</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-2984107</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-3769597</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="13">
+      <c r="E21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="13">
         <v>9731625</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>16234648</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>26538724</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>30994287</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>70710577</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="9">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="E22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
         <v>344590</v>
       </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="13">
+      <c r="E23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="13">
         <v>9731625</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>16579238</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>26538724</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>30994287</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>70710577</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1047,8 +1362,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1057,8 +1377,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1067,10 +1392,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1089,8 +1419,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1099,130 +1444,210 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="9">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9">
-        <v>0</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="11">
-        <v>0</v>
-      </c>
-      <c r="G30" s="11">
-        <v>0</v>
-      </c>
-      <c r="H30" s="11">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="9">
-        <v>0</v>
-      </c>
-      <c r="G31" s="9">
-        <v>0</v>
-      </c>
-      <c r="H31" s="9">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>0</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="11">
-        <v>0</v>
-      </c>
-      <c r="G32" s="11">
-        <v>0</v>
-      </c>
-      <c r="H32" s="11">
-        <v>0</v>
-      </c>
-      <c r="I32" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0</v>
+      </c>
+      <c r="N32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="9">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9">
-        <v>0</v>
-      </c>
-      <c r="H33" s="9">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1241,8 +1666,23 @@
       <c r="I34" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="13">
+        <v>0</v>
+      </c>
+      <c r="K34" s="13">
+        <v>0</v>
+      </c>
+      <c r="L34" s="13">
+        <v>0</v>
+      </c>
+      <c r="M34" s="13">
+        <v>0</v>
+      </c>
+      <c r="N34" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1251,8 +1691,13 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1261,8 +1706,13 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1271,10 +1721,15 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1293,8 +1748,23 @@
       <c r="I38" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1303,130 +1773,210 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="9">
+        <v>15</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="9">
         <v>342996804</v>
       </c>
-      <c r="G40" s="9">
+      <c r="L40" s="9">
         <v>315084900</v>
       </c>
-      <c r="H40" s="9">
+      <c r="M40" s="9">
         <v>322772900</v>
       </c>
-      <c r="I40" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N40" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="11">
-        <v>0</v>
-      </c>
-      <c r="G41" s="11">
+        <v>15</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" s="11">
+        <v>0</v>
+      </c>
+      <c r="L41" s="11">
         <v>19456189</v>
       </c>
-      <c r="H41" s="11">
+      <c r="M41" s="11">
         <v>14806766</v>
       </c>
-      <c r="I41" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N41" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="9">
+        <v>15</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="9">
         <v>494048</v>
       </c>
-      <c r="G42" s="9">
+      <c r="L42" s="9">
         <v>492291</v>
       </c>
-      <c r="H42" s="9">
+      <c r="M42" s="9">
         <v>484152</v>
       </c>
-      <c r="I42" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N42" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="11">
+        <v>15</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="11">
         <v>1351466583</v>
       </c>
-      <c r="G43" s="11">
+      <c r="L43" s="11">
         <v>1380620780</v>
       </c>
-      <c r="H43" s="11">
+      <c r="M43" s="11">
         <v>1305447999</v>
       </c>
-      <c r="I43" s="11">
+      <c r="N43" s="11">
         <v>1504453723</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="9">
+        <v>15</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="9">
         <v>1762524</v>
       </c>
-      <c r="G44" s="9">
+      <c r="L44" s="9">
         <v>1599433</v>
       </c>
-      <c r="H44" s="9">
+      <c r="M44" s="9">
         <v>1551066</v>
       </c>
-      <c r="I44" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N44" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -1434,19 +1984,34 @@
         <v>0</v>
       </c>
       <c r="F45" s="13">
+        <v>0</v>
+      </c>
+      <c r="G45" s="13">
+        <v>0</v>
+      </c>
+      <c r="H45" s="13">
+        <v>0</v>
+      </c>
+      <c r="I45" s="13">
+        <v>0</v>
+      </c>
+      <c r="J45" s="13">
+        <v>0</v>
+      </c>
+      <c r="K45" s="13">
         <v>1696719959</v>
       </c>
-      <c r="G45" s="13">
+      <c r="L45" s="13">
         <v>1717253593</v>
       </c>
-      <c r="H45" s="13">
+      <c r="M45" s="13">
         <v>1645062883</v>
       </c>
-      <c r="I45" s="13">
+      <c r="N45" s="13">
         <v>1504453723</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1455,8 +2020,13 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1465,8 +2035,13 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1475,10 +2050,15 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1497,8 +2077,23 @@
       <c r="I49" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1507,130 +2102,210 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="9">
+        <v>15</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" s="9">
         <v>342996804</v>
       </c>
-      <c r="G51" s="9">
+      <c r="L51" s="9">
         <v>315084900</v>
       </c>
-      <c r="H51" s="9">
+      <c r="M51" s="9">
         <v>322772900</v>
       </c>
-      <c r="I51" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N51" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F52" s="11">
-        <v>0</v>
-      </c>
-      <c r="G52" s="11">
+        <v>15</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" s="11">
+        <v>0</v>
+      </c>
+      <c r="L52" s="11">
         <v>19456189</v>
       </c>
-      <c r="H52" s="11">
+      <c r="M52" s="11">
         <v>14806766</v>
       </c>
-      <c r="I52" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N52" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F53" s="9">
+        <v>15</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" s="9">
         <v>494048</v>
       </c>
-      <c r="G53" s="9">
+      <c r="L53" s="9">
         <v>492291</v>
       </c>
-      <c r="H53" s="9">
+      <c r="M53" s="9">
         <v>484152</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N53" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="11">
+        <v>15</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" s="11">
         <v>1351466583</v>
       </c>
-      <c r="G54" s="11">
+      <c r="L54" s="11">
         <v>1380620780</v>
       </c>
-      <c r="H54" s="11">
+      <c r="M54" s="11">
         <v>1305447999</v>
       </c>
-      <c r="I54" s="11">
+      <c r="N54" s="11">
         <v>1504453723</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F55" s="9">
+        <v>15</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K55" s="9">
         <v>1762524</v>
       </c>
-      <c r="G55" s="9">
+      <c r="L55" s="9">
         <v>1599433</v>
       </c>
-      <c r="H55" s="9">
+      <c r="M55" s="9">
         <v>1551066</v>
       </c>
-      <c r="I55" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N55" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -1638,19 +2313,34 @@
         <v>0</v>
       </c>
       <c r="F56" s="13">
+        <v>0</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0</v>
+      </c>
+      <c r="H56" s="13">
+        <v>0</v>
+      </c>
+      <c r="I56" s="13">
+        <v>0</v>
+      </c>
+      <c r="J56" s="13">
+        <v>0</v>
+      </c>
+      <c r="K56" s="13">
         <v>1696719959</v>
       </c>
-      <c r="G56" s="13">
+      <c r="L56" s="13">
         <v>1717253593</v>
       </c>
-      <c r="H56" s="13">
+      <c r="M56" s="13">
         <v>1645062883</v>
       </c>
-      <c r="I56" s="13">
+      <c r="N56" s="13">
         <v>1504453723</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1659,8 +2349,13 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1669,8 +2364,13 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1679,10 +2379,15 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -1701,8 +2406,23 @@
       <c r="I60" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1711,130 +2431,210 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F62" s="9">
-        <v>0</v>
-      </c>
-      <c r="G62" s="9">
-        <v>0</v>
-      </c>
-      <c r="H62" s="9">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K62" s="9">
+        <v>0</v>
+      </c>
+      <c r="L62" s="9">
+        <v>0</v>
+      </c>
+      <c r="M62" s="9">
+        <v>0</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F63" s="11">
-        <v>0</v>
-      </c>
-      <c r="G63" s="11">
-        <v>0</v>
-      </c>
-      <c r="H63" s="11">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K63" s="11">
+        <v>0</v>
+      </c>
+      <c r="L63" s="11">
+        <v>0</v>
+      </c>
+      <c r="M63" s="11">
+        <v>0</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="9">
-        <v>0</v>
-      </c>
-      <c r="G64" s="9">
-        <v>0</v>
-      </c>
-      <c r="H64" s="9">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K64" s="9">
+        <v>0</v>
+      </c>
+      <c r="L64" s="9">
+        <v>0</v>
+      </c>
+      <c r="M64" s="9">
+        <v>0</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F65" s="11">
-        <v>0</v>
-      </c>
-      <c r="G65" s="11">
-        <v>0</v>
-      </c>
-      <c r="H65" s="11">
-        <v>0</v>
-      </c>
-      <c r="I65" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K65" s="11">
+        <v>0</v>
+      </c>
+      <c r="L65" s="11">
+        <v>0</v>
+      </c>
+      <c r="M65" s="11">
+        <v>0</v>
+      </c>
+      <c r="N65" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F66" s="9">
-        <v>0</v>
-      </c>
-      <c r="G66" s="9">
-        <v>0</v>
-      </c>
-      <c r="H66" s="9">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K66" s="9">
+        <v>0</v>
+      </c>
+      <c r="L66" s="9">
+        <v>0</v>
+      </c>
+      <c r="M66" s="9">
+        <v>0</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -1853,8 +2653,23 @@
       <c r="I67" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="13">
+        <v>0</v>
+      </c>
+      <c r="K67" s="13">
+        <v>0</v>
+      </c>
+      <c r="L67" s="13">
+        <v>0</v>
+      </c>
+      <c r="M67" s="13">
+        <v>0</v>
+      </c>
+      <c r="N67" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1863,8 +2678,13 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1873,8 +2693,13 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1883,10 +2708,15 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -1905,8 +2735,23 @@
       <c r="I71" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1915,130 +2760,210 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F73" s="9">
-        <v>0</v>
-      </c>
-      <c r="G73" s="9">
-        <v>0</v>
-      </c>
-      <c r="H73" s="9">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K73" s="9">
+        <v>0</v>
+      </c>
+      <c r="L73" s="9">
+        <v>0</v>
+      </c>
+      <c r="M73" s="9">
+        <v>0</v>
+      </c>
+      <c r="N73" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F74" s="11">
-        <v>0</v>
-      </c>
-      <c r="G74" s="11">
-        <v>0</v>
-      </c>
-      <c r="H74" s="11">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K74" s="11">
+        <v>0</v>
+      </c>
+      <c r="L74" s="11">
+        <v>0</v>
+      </c>
+      <c r="M74" s="11">
+        <v>0</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F75" s="9">
-        <v>0</v>
-      </c>
-      <c r="G75" s="9">
-        <v>0</v>
-      </c>
-      <c r="H75" s="9">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K75" s="9">
+        <v>0</v>
+      </c>
+      <c r="L75" s="9">
+        <v>0</v>
+      </c>
+      <c r="M75" s="9">
+        <v>0</v>
+      </c>
+      <c r="N75" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F76" s="11">
-        <v>0</v>
-      </c>
-      <c r="G76" s="11">
-        <v>0</v>
-      </c>
-      <c r="H76" s="11">
-        <v>0</v>
-      </c>
-      <c r="I76" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K76" s="11">
+        <v>0</v>
+      </c>
+      <c r="L76" s="11">
+        <v>0</v>
+      </c>
+      <c r="M76" s="11">
+        <v>0</v>
+      </c>
+      <c r="N76" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F77" s="9">
-        <v>0</v>
-      </c>
-      <c r="G77" s="9">
-        <v>0</v>
-      </c>
-      <c r="H77" s="9">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K77" s="9">
+        <v>0</v>
+      </c>
+      <c r="L77" s="9">
+        <v>0</v>
+      </c>
+      <c r="M77" s="9">
+        <v>0</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
@@ -2057,8 +2982,23 @@
       <c r="I78" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="13">
+        <v>0</v>
+      </c>
+      <c r="K78" s="13">
+        <v>0</v>
+      </c>
+      <c r="L78" s="13">
+        <v>0</v>
+      </c>
+      <c r="M78" s="13">
+        <v>0</v>
+      </c>
+      <c r="N78" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2067,8 +3007,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2077,8 +3022,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2087,10 +3037,15 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2109,8 +3064,23 @@
       <c r="I82" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2119,130 +3089,210 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F84" s="9">
+        <v>15</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K84" s="9">
         <v>1185615</v>
       </c>
-      <c r="G84" s="9">
+      <c r="L84" s="9">
         <v>1581045</v>
       </c>
-      <c r="H84" s="9">
+      <c r="M84" s="9">
         <v>1774562</v>
       </c>
-      <c r="I84" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N84" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F85" s="11">
+        <v>15</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K85" s="11">
         <v>536140</v>
       </c>
-      <c r="G85" s="11">
+      <c r="L85" s="11">
         <v>1227396</v>
       </c>
-      <c r="H85" s="11">
+      <c r="M85" s="11">
         <v>1178959</v>
       </c>
-      <c r="I85" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N85" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F86" s="9">
+        <v>15</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K86" s="9">
         <v>1346266</v>
       </c>
-      <c r="G86" s="9">
+      <c r="L86" s="9">
         <v>1889324</v>
       </c>
-      <c r="H86" s="9">
+      <c r="M86" s="9">
         <v>2038023</v>
       </c>
-      <c r="I86" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N86" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F87" s="11">
+        <v>15</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K87" s="11">
         <v>5800021</v>
       </c>
-      <c r="G87" s="11">
+      <c r="L87" s="11">
         <v>13950047</v>
       </c>
-      <c r="H87" s="11">
+      <c r="M87" s="11">
         <v>11751565</v>
       </c>
-      <c r="I87" s="11">
+      <c r="N87" s="11">
         <v>38631052</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F88" s="9">
+        <v>15</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K88" s="9">
         <v>1181157</v>
       </c>
-      <c r="G88" s="9">
+      <c r="L88" s="9">
         <v>1535754</v>
       </c>
-      <c r="H88" s="9">
+      <c r="M88" s="9">
         <v>1641418</v>
       </c>
-      <c r="I88" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N88" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
@@ -2250,19 +3300,34 @@
         <v>0</v>
       </c>
       <c r="F89" s="13">
+        <v>0</v>
+      </c>
+      <c r="G89" s="13">
+        <v>0</v>
+      </c>
+      <c r="H89" s="13">
+        <v>0</v>
+      </c>
+      <c r="I89" s="13">
+        <v>0</v>
+      </c>
+      <c r="J89" s="13">
+        <v>0</v>
+      </c>
+      <c r="K89" s="13">
         <v>10049199</v>
       </c>
-      <c r="G89" s="13">
+      <c r="L89" s="13">
         <v>20183566</v>
       </c>
-      <c r="H89" s="13">
+      <c r="M89" s="13">
         <v>18384527</v>
       </c>
-      <c r="I89" s="13">
+      <c r="N89" s="13">
         <v>38631052</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2271,8 +3336,13 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2281,8 +3351,13 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2291,10 +3366,15 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2313,8 +3393,23 @@
       <c r="I93" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2323,130 +3418,210 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F95" s="9">
+        <v>15</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K95" s="9">
         <v>1185615</v>
       </c>
-      <c r="G95" s="9">
+      <c r="L95" s="9">
         <v>1581045</v>
       </c>
-      <c r="H95" s="9">
+      <c r="M95" s="9">
         <v>1774562</v>
       </c>
-      <c r="I95" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N95" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F96" s="11">
+        <v>15</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K96" s="11">
         <v>536140</v>
       </c>
-      <c r="G96" s="11">
+      <c r="L96" s="11">
         <v>1227396</v>
       </c>
-      <c r="H96" s="11">
+      <c r="M96" s="11">
         <v>1178959</v>
       </c>
-      <c r="I96" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N96" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F97" s="9">
+        <v>15</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K97" s="9">
         <v>1346266</v>
       </c>
-      <c r="G97" s="9">
+      <c r="L97" s="9">
         <v>1889324</v>
       </c>
-      <c r="H97" s="9">
+      <c r="M97" s="9">
         <v>2038023</v>
       </c>
-      <c r="I97" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N97" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F98" s="11">
+        <v>15</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K98" s="11">
         <v>5800021</v>
       </c>
-      <c r="G98" s="11">
+      <c r="L98" s="11">
         <v>13950047</v>
       </c>
-      <c r="H98" s="11">
+      <c r="M98" s="11">
         <v>11751565</v>
       </c>
-      <c r="I98" s="11">
+      <c r="N98" s="11">
         <v>38631052</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F99" s="9">
+        <v>15</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K99" s="9">
         <v>1181157</v>
       </c>
-      <c r="G99" s="9">
+      <c r="L99" s="9">
         <v>1535754</v>
       </c>
-      <c r="H99" s="9">
+      <c r="M99" s="9">
         <v>1641418</v>
       </c>
-      <c r="I99" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N99" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
@@ -2454,19 +3629,34 @@
         <v>0</v>
       </c>
       <c r="F100" s="13">
+        <v>0</v>
+      </c>
+      <c r="G100" s="13">
+        <v>0</v>
+      </c>
+      <c r="H100" s="13">
+        <v>0</v>
+      </c>
+      <c r="I100" s="13">
+        <v>0</v>
+      </c>
+      <c r="J100" s="13">
+        <v>0</v>
+      </c>
+      <c r="K100" s="13">
         <v>10049199</v>
       </c>
-      <c r="G100" s="13">
+      <c r="L100" s="13">
         <v>20183566</v>
       </c>
-      <c r="H100" s="13">
+      <c r="M100" s="13">
         <v>18384527</v>
       </c>
-      <c r="I100" s="13">
+      <c r="N100" s="13">
         <v>38631052</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2475,8 +3665,13 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2485,8 +3680,13 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2495,10 +3695,15 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -2517,8 +3722,23 @@
       <c r="I104" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2527,130 +3747,210 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F106" s="9">
-        <v>0</v>
-      </c>
-      <c r="G106" s="9">
-        <v>0</v>
-      </c>
-      <c r="H106" s="9">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K106" s="9">
+        <v>0</v>
+      </c>
+      <c r="L106" s="9">
+        <v>0</v>
+      </c>
+      <c r="M106" s="9">
+        <v>0</v>
+      </c>
+      <c r="N106" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F107" s="11">
-        <v>0</v>
-      </c>
-      <c r="G107" s="11">
-        <v>0</v>
-      </c>
-      <c r="H107" s="11">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K107" s="11">
+        <v>0</v>
+      </c>
+      <c r="L107" s="11">
+        <v>0</v>
+      </c>
+      <c r="M107" s="11">
+        <v>0</v>
+      </c>
+      <c r="N107" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F108" s="9">
-        <v>0</v>
-      </c>
-      <c r="G108" s="9">
-        <v>0</v>
-      </c>
-      <c r="H108" s="9">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K108" s="9">
+        <v>0</v>
+      </c>
+      <c r="L108" s="9">
+        <v>0</v>
+      </c>
+      <c r="M108" s="9">
+        <v>0</v>
+      </c>
+      <c r="N108" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F109" s="11">
-        <v>0</v>
-      </c>
-      <c r="G109" s="11">
-        <v>0</v>
-      </c>
-      <c r="H109" s="11">
-        <v>0</v>
-      </c>
-      <c r="I109" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K109" s="11">
+        <v>0</v>
+      </c>
+      <c r="L109" s="11">
+        <v>0</v>
+      </c>
+      <c r="M109" s="11">
+        <v>0</v>
+      </c>
+      <c r="N109" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F110" s="9">
-        <v>0</v>
-      </c>
-      <c r="G110" s="9">
-        <v>0</v>
-      </c>
-      <c r="H110" s="9">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K110" s="9">
+        <v>0</v>
+      </c>
+      <c r="L110" s="9">
+        <v>0</v>
+      </c>
+      <c r="M110" s="9">
+        <v>0</v>
+      </c>
+      <c r="N110" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
@@ -2669,8 +3969,23 @@
       <c r="I111" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="13">
+        <v>0</v>
+      </c>
+      <c r="K111" s="13">
+        <v>0</v>
+      </c>
+      <c r="L111" s="13">
+        <v>0</v>
+      </c>
+      <c r="M111" s="13">
+        <v>0</v>
+      </c>
+      <c r="N111" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2679,8 +3994,13 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2689,8 +4009,13 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2699,10 +4024,15 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -2721,8 +4051,23 @@
       <c r="I115" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2731,128 +4076,208 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F117" s="9">
+        <v>15</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K117" s="9">
         <v>3457</v>
       </c>
-      <c r="G117" s="9">
+      <c r="L117" s="9">
         <v>5018</v>
       </c>
-      <c r="H117" s="9">
+      <c r="M117" s="9">
         <v>5498</v>
       </c>
-      <c r="I117" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N117" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G118" s="11">
+        <v>15</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L118" s="11">
         <v>63085</v>
       </c>
-      <c r="H118" s="11">
+      <c r="M118" s="11">
         <v>79623</v>
       </c>
-      <c r="I118" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N118" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F119" s="9">
+        <v>15</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K119" s="9">
         <v>2724970</v>
       </c>
-      <c r="G119" s="9">
+      <c r="L119" s="9">
         <v>3837820</v>
       </c>
-      <c r="H119" s="9">
+      <c r="M119" s="9">
         <v>4209469</v>
       </c>
-      <c r="I119" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N119" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F120" s="11">
+        <v>15</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K120" s="11">
         <v>4292</v>
       </c>
-      <c r="G120" s="11">
+      <c r="L120" s="11">
         <v>10104</v>
       </c>
-      <c r="H120" s="11">
+      <c r="M120" s="11">
         <v>9002</v>
       </c>
-      <c r="I120" s="11">
+      <c r="N120" s="11">
         <v>25678</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F121" s="9">
+        <v>15</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K121" s="9">
         <v>670151</v>
       </c>
-      <c r="G121" s="9">
+      <c r="L121" s="9">
         <v>960187</v>
       </c>
-      <c r="H121" s="9">
+      <c r="M121" s="9">
         <v>1058252</v>
       </c>
-      <c r="I121" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N121" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2861,8 +4286,13 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -2871,8 +4301,13 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2881,10 +4316,15 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -2903,8 +4343,23 @@
       <c r="I125" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L125" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M125" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N125" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -2913,128 +4368,208 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F127" s="9">
+        <v>15</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K127" s="9">
         <v>3457</v>
       </c>
-      <c r="G127" s="9">
+      <c r="L127" s="9">
         <v>5018</v>
       </c>
-      <c r="H127" s="9">
+      <c r="M127" s="9">
         <v>5498</v>
       </c>
-      <c r="I127" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N127" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G128" s="11">
+        <v>15</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H128" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I128" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J128" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K128" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L128" s="11">
         <v>63085</v>
       </c>
-      <c r="H128" s="11">
+      <c r="M128" s="11">
         <v>79623</v>
       </c>
-      <c r="I128" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N128" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F129" s="9">
+        <v>15</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J129" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K129" s="9">
         <v>2724970</v>
       </c>
-      <c r="G129" s="9">
+      <c r="L129" s="9">
         <v>3837820</v>
       </c>
-      <c r="H129" s="9">
+      <c r="M129" s="9">
         <v>4209469</v>
       </c>
-      <c r="I129" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N129" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F130" s="11">
+        <v>15</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I130" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J130" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K130" s="11">
         <v>4292</v>
       </c>
-      <c r="G130" s="11">
+      <c r="L130" s="11">
         <v>10104</v>
       </c>
-      <c r="H130" s="11">
+      <c r="M130" s="11">
         <v>9002</v>
       </c>
-      <c r="I130" s="11">
+      <c r="N130" s="11">
         <v>25678</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F131" s="9">
+        <v>15</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K131" s="9">
         <v>670151</v>
       </c>
-      <c r="G131" s="9">
+      <c r="L131" s="9">
         <v>960187</v>
       </c>
-      <c r="H131" s="9">
+      <c r="M131" s="9">
         <v>1058252</v>
       </c>
-      <c r="I131" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N131" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3043,8 +4578,13 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3053,8 +4593,13 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3063,10 +4608,15 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+    </row>
+    <row r="135" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -3085,8 +4635,23 @@
       <c r="I135" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K135" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L135" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M135" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N135" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3095,246 +4660,416 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
-      <c r="E137" s="9">
-        <v>0</v>
-      </c>
-      <c r="F137" s="9">
-        <v>0</v>
-      </c>
-      <c r="G137" s="9">
-        <v>0</v>
-      </c>
-      <c r="H137" s="9">
-        <v>0</v>
-      </c>
-      <c r="I137" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E137" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137" s="9">
+        <v>0</v>
+      </c>
+      <c r="K137" s="9">
+        <v>0</v>
+      </c>
+      <c r="L137" s="9">
+        <v>0</v>
+      </c>
+      <c r="M137" s="9">
+        <v>0</v>
+      </c>
+      <c r="N137" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
-      <c r="E138" s="11">
-        <v>0</v>
-      </c>
-      <c r="F138" s="11">
-        <v>0</v>
-      </c>
-      <c r="G138" s="11">
-        <v>0</v>
-      </c>
-      <c r="H138" s="11">
-        <v>0</v>
-      </c>
-      <c r="I138" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E138" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I138" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J138" s="11">
+        <v>0</v>
+      </c>
+      <c r="K138" s="11">
+        <v>0</v>
+      </c>
+      <c r="L138" s="11">
+        <v>0</v>
+      </c>
+      <c r="M138" s="11">
+        <v>0</v>
+      </c>
+      <c r="N138" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
-      <c r="E139" s="9">
-        <v>0</v>
-      </c>
-      <c r="F139" s="9">
-        <v>0</v>
-      </c>
-      <c r="G139" s="9">
-        <v>0</v>
-      </c>
-      <c r="H139" s="9">
-        <v>0</v>
-      </c>
-      <c r="I139" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E139" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J139" s="9">
+        <v>0</v>
+      </c>
+      <c r="K139" s="9">
+        <v>0</v>
+      </c>
+      <c r="L139" s="9">
+        <v>0</v>
+      </c>
+      <c r="M139" s="9">
+        <v>0</v>
+      </c>
+      <c r="N139" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
-      <c r="E140" s="11">
-        <v>0</v>
-      </c>
-      <c r="F140" s="11">
-        <v>0</v>
-      </c>
-      <c r="G140" s="11">
-        <v>0</v>
-      </c>
-      <c r="H140" s="11">
-        <v>0</v>
-      </c>
-      <c r="I140" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E140" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H140" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I140" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J140" s="11">
+        <v>0</v>
+      </c>
+      <c r="K140" s="11">
+        <v>0</v>
+      </c>
+      <c r="L140" s="11">
+        <v>0</v>
+      </c>
+      <c r="M140" s="11">
+        <v>0</v>
+      </c>
+      <c r="N140" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
-      <c r="E141" s="9">
+      <c r="E141" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J141" s="9">
         <v>110509</v>
       </c>
-      <c r="F141" s="9">
+      <c r="K141" s="9">
         <v>162724</v>
       </c>
-      <c r="G141" s="9">
+      <c r="L141" s="9">
         <v>269569</v>
       </c>
-      <c r="H141" s="9">
+      <c r="M141" s="9">
         <v>316954</v>
       </c>
-      <c r="I141" s="9">
+      <c r="N141" s="9">
         <v>361570</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
-      <c r="E142" s="11">
+      <c r="E142" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H142" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I142" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J142" s="11">
         <v>539447</v>
       </c>
-      <c r="F142" s="11">
+      <c r="K142" s="11">
         <v>820813</v>
       </c>
-      <c r="G142" s="11">
+      <c r="L142" s="11">
         <v>1270112</v>
       </c>
-      <c r="H142" s="11">
+      <c r="M142" s="11">
         <v>8806256</v>
       </c>
-      <c r="I142" s="11">
+      <c r="N142" s="11">
         <v>18761883</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
-      <c r="E143" s="9">
+      <c r="E143" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I143" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J143" s="9">
         <v>746169</v>
       </c>
-      <c r="F143" s="9">
+      <c r="K143" s="9">
         <v>2194419</v>
       </c>
-      <c r="G143" s="9">
+      <c r="L143" s="9">
         <v>2690482</v>
       </c>
-      <c r="H143" s="9">
+      <c r="M143" s="9">
         <v>2875942</v>
       </c>
-      <c r="I143" s="9">
+      <c r="N143" s="9">
         <v>2629981</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
-      <c r="E144" s="11">
+      <c r="E144" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H144" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I144" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J144" s="11">
         <v>541534</v>
       </c>
-      <c r="F144" s="11">
+      <c r="K144" s="11">
         <v>684250</v>
       </c>
-      <c r="G144" s="11">
+      <c r="L144" s="11">
         <v>1114955</v>
       </c>
-      <c r="H144" s="11">
+      <c r="M144" s="11">
         <v>1376915</v>
       </c>
-      <c r="I144" s="11">
+      <c r="N144" s="11">
         <v>3016180</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
-      <c r="E145" s="9">
-        <v>0</v>
-      </c>
-      <c r="F145" s="9">
-        <v>0</v>
-      </c>
-      <c r="G145" s="9">
-        <v>0</v>
-      </c>
-      <c r="H145" s="9">
-        <v>0</v>
-      </c>
-      <c r="I145" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E145" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J145" s="9">
+        <v>0</v>
+      </c>
+      <c r="K145" s="9">
+        <v>0</v>
+      </c>
+      <c r="L145" s="9">
+        <v>0</v>
+      </c>
+      <c r="M145" s="9">
+        <v>0</v>
+      </c>
+      <c r="N145" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
-      <c r="E146" s="11">
+      <c r="E146" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I146" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J146" s="11">
         <v>1925992</v>
       </c>
-      <c r="F146" s="11">
+      <c r="K146" s="11">
         <v>2498960</v>
       </c>
-      <c r="G146" s="11">
+      <c r="L146" s="11">
         <v>3912870</v>
       </c>
-      <c r="H146" s="11">
+      <c r="M146" s="11">
         <v>4177471</v>
       </c>
-      <c r="I146" s="11">
+      <c r="N146" s="11">
         <v>6583769</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="14" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C147" s="15"/>
       <c r="D147" s="15"/>
       <c r="E147" s="15">
+        <v>0</v>
+      </c>
+      <c r="F147" s="15">
+        <v>0</v>
+      </c>
+      <c r="G147" s="15">
+        <v>0</v>
+      </c>
+      <c r="H147" s="15">
+        <v>0</v>
+      </c>
+      <c r="I147" s="15">
+        <v>0</v>
+      </c>
+      <c r="J147" s="15">
         <v>3863651</v>
       </c>
-      <c r="F147" s="15">
+      <c r="K147" s="15">
         <v>6361166</v>
       </c>
-      <c r="G147" s="15">
+      <c r="L147" s="15">
         <v>9257988</v>
       </c>
-      <c r="H147" s="15">
+      <c r="M147" s="15">
         <v>17553538</v>
       </c>
-      <c r="I147" s="15">
+      <c r="N147" s="15">
         <v>31353383</v>
       </c>
     </row>
